--- a/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
+++ b/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitypro\SoilExperiment\SoilExperiment\Assets\InProject\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pro\unitypro\SoilExperiment\Assets\InProject\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83186189-E501-433D-B74D-92268ADAEACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,20 +22,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -42,9 +41,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -58,154 +55,131 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>设备名称</t>
+  </si>
+  <si>
+    <t>设备介绍</t>
+  </si>
+  <si>
+    <t>操作按钮文字</t>
+  </si>
+  <si>
+    <t>是否完成</t>
+  </si>
+  <si>
+    <t>相关设备数组id</t>
+  </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备介绍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>StepIndex</t>
   </si>
   <si>
     <t>Instruction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>StepIndex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextOnButton</t>
+  </si>
+  <si>
+    <t>isFinish</t>
+  </si>
+  <si>
+    <t>ObjectInStepId</t>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、打开电子秤</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>2、将环刀放到电子秤上</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>3、点击电子秤，秤取环刀的质量</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>4、在环刀内壁涂一薄层凡士林</t>
+  </si>
+  <si>
+    <t>涂抹凡士林</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
+    <t xml:space="preserve">5、将环刀刃口向下放在土样上 </t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
+    <t xml:space="preserve">6、环刀垂直下压 </t>
+  </si>
+  <si>
+    <t>下压</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
+    <t xml:space="preserve">7、边压边削，直至土样上端伸出环刀为止 </t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
+    <t xml:space="preserve">8、将环刀两端余土削去修平，擦净环刀外壁 </t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>3、在环刀内壁涂一薄层凡士林</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4、将环刀刃口向下放在土样上 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5、环刀垂直下压 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">6、边压边削，直至土样上端伸出环刀为止 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作按钮文字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TextOnButton</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂抹凡士林</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下压</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFinish</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关设备数组id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ObjectInStepId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">7、将环刀两端余土削去修平，擦净环刀外壁 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8、将取好土样的环刀放在电子秤上称量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、在电子秤上称环刀质量 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2、点击电子秤 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9、点击电子秤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>9、将取好土样的环刀放在电子秤上称量</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10、点击电子秤，秤取当前带土环刀的总质量</t>
+  </si>
+  <si>
+    <t>质量为M</t>
+  </si>
+  <si>
+    <t>质量为m</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,9 +189,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -225,16 +205,31 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -245,22 +240,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF7030A0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -282,14 +262,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -303,16 +283,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </bottom>
       <diagonal/>
     </border>
@@ -336,81 +316,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 5" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,7 +454,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,7 +489,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,311 +697,324 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="42.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="12" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="13" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="42.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="F10" s="19">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="F11" s="19">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
+      <c r="C13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="17">
         <v>0</v>
       </c>
-      <c r="F4" s="20">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="20">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>1003</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="20">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>1004</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="20">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>1005</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="20">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>1006</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="20">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1007</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="20">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>1008</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>1009</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="20">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="20"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B48" s="12"/>
-      <c r="D48" s="12"/>
-    </row>
+      <c r="F13" s="19">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="17:17" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="17:17" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="17:17" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="17:17" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q21" s="21"/>
+    </row>
+    <row r="22" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="B49" s="6"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="B50" s="6"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D51" s="15"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D52" s="15"/>
+      <c r="D52" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1023,28 +1022,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
+++ b/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pro\unitypro\SoilExperiment\Assets\InProject\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitypro\SoilExperiment\SoilExperiment\Assets\InProject\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83186189-E501-433D-B74D-92268ADAEACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>UID</t>
   </si>
@@ -123,9 +122,6 @@
     <t>4、在环刀内壁涂一薄层凡士林</t>
   </si>
   <si>
-    <t>涂抹凡士林</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -138,9 +134,6 @@
     <t xml:space="preserve">6、环刀垂直下压 </t>
   </si>
   <si>
-    <t>下压</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -165,19 +158,73 @@
     <t>10、点击电子秤，秤取当前带土环刀的总质量</t>
   </si>
   <si>
-    <t>质量为M</t>
-  </si>
-  <si>
-    <t>质量为m</t>
+    <t>质量为m（精确到0.01g）</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量为R（精确到0.01g）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量为Q（精确到0.01g）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>11、清理环刀，并测量下一个土样的密度</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、清理环刀，并测量下一个土样的密度</t>
+  </si>
+  <si>
+    <t>13、清理环刀，并测量下一个土样的密度</t>
+  </si>
+  <si>
+    <t>14、清理环刀，并测量下一个土样的密度</t>
+  </si>
+  <si>
+    <t>15、清理环刀，并测量下一个土样的密度</t>
+  </si>
+  <si>
+    <t>16、清理环刀，并测量下一个土样的密度</t>
+  </si>
+  <si>
+    <t>17、清理环刀，并测量下一个土样的密度</t>
+  </si>
+  <si>
+    <t>18、清理环刀，并测量下一个土样的密度</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -319,7 +366,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,7 +427,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -391,12 +438,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 5" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,7 +504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,7 +539,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -697,11 +747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -822,7 +872,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6" s="17">
         <v>0</v>
@@ -841,9 +891,7 @@
       <c r="C7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>22</v>
-      </c>
+      <c r="D7" s="17"/>
       <c r="E7" s="17">
         <v>0</v>
       </c>
@@ -856,10 +904,10 @@
         <v>1005</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17">
@@ -874,14 +922,12 @@
         <v>1006</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="D9" s="17"/>
       <c r="E9" s="17">
         <v>0</v>
       </c>
@@ -894,10 +940,10 @@
         <v>1007</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17">
@@ -912,10 +958,10 @@
         <v>1008</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17">
@@ -930,10 +976,10 @@
         <v>1009</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="17">
         <v>0</v>
@@ -947,13 +993,13 @@
         <v>1010</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>35</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>36</v>
       </c>
       <c r="E13" s="17">
         <v>0</v>
@@ -962,27 +1008,178 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="17:17" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="17:17" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="17:17" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="17:17" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="17">
+        <v>1011</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="23">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17">
+        <v>1012</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="23">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="17">
+        <v>1013</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="23">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17">
+        <v>1014</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="23">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17">
+        <v>1015</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="23">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17">
+        <v>1016</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="23">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17">
+        <v>1017</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="23">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="17">
+        <v>1018</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="23">
+        <v>1010</v>
+      </c>
       <c r="Q21" s="21"/>
     </row>
-    <row r="22" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="17:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="34" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -1022,7 +1219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1036,7 +1233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
+++ b/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>UID</t>
   </si>
@@ -217,6 +217,317 @@
   </si>
   <si>
     <t>18、清理环刀，并测量下一个土样的密度</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量为a（精确到0.01g）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、再次秤取称量盒质量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、盖上称量盒盖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量为A（精确到0.01g）</t>
+  </si>
+  <si>
+    <t>2、将称量盒分别放到电子秤上称重</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、将称量盒分别放到电子秤上称重</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量为b（精确到0.01g）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、取土样放入称量盒1中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、取土样放入称量盒2中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、再次秤取称量盒质量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量为B（精确到0.01g）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、打开称量盒盖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、将称量盒放入烘箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、关闭烘箱，调整温度和时间。（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>105-110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恒温，烘干时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>细粒土不少于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，砂类土不得少于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。对含有机质超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的土或含石膏的土，应将温度
+控制在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60~70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的恒温下，干燥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12 ~ 15h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。）</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、打开烘箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、将称量盒放入干燥器中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11、打开称量盒盖，冷却0. 5~1h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>13、盖上称量盒盖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>14、将称量盒放到电子秤上称重</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、将称量盒放入烘箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、将称量盒放入干燥器中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、打开干燥器盖子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>14、将称量盒放到电子秤上称重</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量为Y（精确到0.01g）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量为X（精确到0.00g）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -320,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -358,6 +669,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -366,7 +692,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,6 +763,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -750,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1156,46 +1488,375 @@
       <c r="Q21" s="21"/>
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
+      <c r="A22" s="17">
+        <v>2001</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="23">
+        <v>3001</v>
+      </c>
     </row>
     <row r="23" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="A23" s="17">
+        <v>2002</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="25">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17">
+        <v>2003</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="F24" s="25">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17">
+        <v>2004</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
+      <c r="F25" s="25">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17">
+        <v>2005</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="25">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="17">
+        <v>2006</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="F27" s="25">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17">
+        <v>2007</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0</v>
+      </c>
+      <c r="F28" s="25">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="17">
+        <v>2008</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
+      <c r="F29" s="25">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="17">
+        <v>2009</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0</v>
+      </c>
+      <c r="F30" s="25">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="17">
+        <v>2010</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="17">
+        <v>0</v>
+      </c>
+      <c r="F31" s="25">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="17">
+        <v>2011</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="17">
+        <v>0</v>
+      </c>
+      <c r="F32" s="25">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A33" s="17">
+        <v>2012</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0</v>
+      </c>
+      <c r="F33" s="25">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="17">
+        <v>2013</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="17">
+        <v>0</v>
+      </c>
+      <c r="F34" s="25">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="17">
+        <v>2014</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="17">
+        <v>0</v>
+      </c>
+      <c r="F35" s="25">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="17">
+        <v>2015</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="17">
+        <v>0</v>
+      </c>
+      <c r="F36" s="25">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="17">
+        <v>2016</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="17">
+        <v>0</v>
+      </c>
+      <c r="F37" s="25">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="17">
+        <v>2017</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="17">
+        <v>0</v>
+      </c>
+      <c r="F38" s="25">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="17">
+        <v>2018</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="17">
+        <v>0</v>
+      </c>
+      <c r="F39" s="25">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="17">
+        <v>2019</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="17">
+        <v>0</v>
+      </c>
+      <c r="F40" s="25">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="17">
+        <v>2020</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="17">
+        <v>0</v>
+      </c>
+      <c r="F41" s="25">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B48" s="6"/>
+      <c r="D48" s="6"/>
+    </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49" s="6"/>
       <c r="D49" s="6"/>

--- a/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
+++ b/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
   <si>
     <t>UID</t>
   </si>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4、盖上称量盒盖</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>质量为A（精确到0.01g）</t>
   </si>
   <si>
@@ -250,27 +246,83 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3、取土样放入称量盒1中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、取土样放入称量盒2中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、再次秤取称量盒质量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>质量为B（精确到0.01g）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>6、打开称量盒盖</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>7、将称量盒放入烘箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、打开烘箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>13、盖上称量盒盖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>14、将称量盒放到电子秤上称重</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、将称量盒放入烘箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、打开干燥器盖子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量为Y（精确到0.01g）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、取土样放入称量盒1中，立即盖上称量盒盖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、取土样放入称量盒2中，立即盖上称量盒盖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、将两个称量盒盖打开</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、将称量盒放入干燥器中，冷却0. 5~1h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、将称量盒放入干燥器中，冷却0. 5~1h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量为X（精确到0.01g）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、取风干土样，过0.5mm的筛200g</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、将土样分开放入三个盛土皿中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、依据经验，添加不同的水，使其达到试验所需含水量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、用调土刀调匀，盖上湿布放置18h以上</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -285,7 +337,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>、关闭烘箱，调整温度和时间。（</t>
+      <t>、调整温度和时间。（</t>
     </r>
     <r>
       <rPr>
@@ -327,28 +379,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>恒温，烘干时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>细粒土不少于</t>
+      <t>恒温，细粒土不少于</t>
     </r>
     <r>
       <rPr>
@@ -475,68 +506,76 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>。）</t>
+      <t>。）关闭烘箱</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>9、打开烘箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10、将称量盒放入干燥器中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>11、打开称量盒盖，冷却0. 5~1h</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>13、盖上称量盒盖</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>14、将称量盒放到电子秤上称重</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、将称量盒放入烘箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10、将称量盒放入干燥器中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>12、打开干燥器盖子</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>14、将称量盒放到电子秤上称重</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>质量为Y（精确到0.01g）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>质量为X（精确到0.00g）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>7、转动平台升降螺母，当锥尖刚与土面接触时指示管亮</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、将土样分开放入三个盛土皿中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、将制备好的土样分层装入盛土杯，用力压密，使空气逸出。试杯装满后,刮成与杯边齐平</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、将制备好的土样充分搅拌均匀</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、将盛土杯放入联合测定仪上</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、点动测量按钮，圆锥自由落下，延时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，读数指示管，即可读数</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20mm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -692,7 +731,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,9 +790,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1080,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1203,7 +1239,7 @@
       <c r="C6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="17">
@@ -1330,7 +1366,7 @@
       <c r="C13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="17">
@@ -1347,14 +1383,14 @@
       <c r="B14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="17">
         <v>0</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>1006</v>
       </c>
     </row>
@@ -1365,14 +1401,14 @@
       <c r="B15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="23"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="17">
         <v>0</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>1004</v>
       </c>
     </row>
@@ -1383,14 +1419,14 @@
       <c r="B16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="17">
         <v>0</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>2001</v>
       </c>
     </row>
@@ -1401,14 +1437,14 @@
       <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="23"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="17">
         <v>0</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>1006</v>
       </c>
     </row>
@@ -1419,14 +1455,14 @@
       <c r="B18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="23"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="17">
         <v>0</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>2002</v>
       </c>
     </row>
@@ -1437,14 +1473,14 @@
       <c r="B19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="23"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="17">
         <v>0</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>1008</v>
       </c>
     </row>
@@ -1455,14 +1491,14 @@
       <c r="B20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="17">
         <v>0</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>1009</v>
       </c>
     </row>
@@ -1473,19 +1509,19 @@
       <c r="B21" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="17">
         <v>0</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>1010</v>
       </c>
-      <c r="Q21" s="21"/>
+      <c r="Q21" s="20"/>
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="17">
@@ -1497,11 +1533,11 @@
       <c r="C22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="17">
         <v>0</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>3001</v>
       </c>
     </row>
@@ -1512,16 +1548,16 @@
       <c r="B23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="17">
         <v>0</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="24">
         <v>3002</v>
       </c>
     </row>
@@ -1532,16 +1568,16 @@
       <c r="B24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>60</v>
-      </c>
       <c r="E24" s="17">
         <v>0</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="24">
         <v>3003</v>
       </c>
     </row>
@@ -1552,13 +1588,13 @@
       <c r="B25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>61</v>
+      <c r="C25" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="E25" s="17">
         <v>0</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="24">
         <v>3004</v>
       </c>
     </row>
@@ -1569,13 +1605,13 @@
       <c r="B26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>62</v>
+      <c r="C26" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="E26" s="17">
         <v>0</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="24">
         <v>3005</v>
       </c>
     </row>
@@ -1586,15 +1622,17 @@
       <c r="B27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="22"/>
       <c r="E27" s="17">
         <v>0</v>
       </c>
-      <c r="F27" s="25">
-        <v>3006</v>
+      <c r="F27" s="24">
+        <v>3002</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1604,17 +1642,17 @@
       <c r="B28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>57</v>
+      <c r="D28" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="E28" s="17">
         <v>0</v>
       </c>
-      <c r="F28" s="25">
-        <v>3002</v>
+      <c r="F28" s="24">
+        <v>3003</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1624,17 +1662,14 @@
       <c r="B29" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>64</v>
+      <c r="C29" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="E29" s="17">
         <v>0</v>
       </c>
-      <c r="F29" s="25">
-        <v>3003</v>
+      <c r="F29" s="24">
+        <v>3006</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1644,14 +1679,14 @@
       <c r="B30" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>65</v>
+      <c r="C30" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="E30" s="17">
         <v>0</v>
       </c>
-      <c r="F30" s="25">
-        <v>3006</v>
+      <c r="F30" s="24">
+        <v>3007</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1661,47 +1696,47 @@
       <c r="B31" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>66</v>
+      <c r="C31" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="E31" s="17">
         <v>0</v>
       </c>
-      <c r="F31" s="25">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F31" s="24">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A32" s="17">
         <v>2011</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>73</v>
+      <c r="C32" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="E32" s="17">
         <v>0</v>
       </c>
-      <c r="F32" s="25">
-        <v>3008</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="F32" s="24">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17">
         <v>2012</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>67</v>
+      <c r="C33" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="E33" s="17">
         <v>0</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="24">
         <v>3009</v>
       </c>
     </row>
@@ -1712,14 +1747,14 @@
       <c r="B34" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>68</v>
+      <c r="C34" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="E34" s="17">
         <v>0</v>
       </c>
-      <c r="F34" s="25">
-        <v>3009</v>
+      <c r="F34" s="24">
+        <v>3010</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1729,14 +1764,14 @@
       <c r="B35" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>69</v>
+      <c r="C35" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="E35" s="17">
         <v>0</v>
       </c>
-      <c r="F35" s="25">
-        <v>3010</v>
+      <c r="F35" s="24">
+        <v>4001</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1746,14 +1781,14 @@
       <c r="B36" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>74</v>
+      <c r="C36" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="E36" s="17">
         <v>0</v>
       </c>
-      <c r="F36" s="25">
-        <v>4001</v>
+      <c r="F36" s="24">
+        <v>4002</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1763,13 +1798,13 @@
       <c r="B37" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>70</v>
+      <c r="C37" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="E37" s="17">
         <v>0</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="24">
         <v>3006</v>
       </c>
     </row>
@@ -1778,16 +1813,19 @@
         <v>2017</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="E38" s="17">
         <v>0</v>
       </c>
-      <c r="F38" s="25">
-        <v>4002</v>
+      <c r="F38" s="24">
+        <v>3002</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1797,79 +1835,258 @@
       <c r="B39" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>71</v>
+      <c r="C39" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="E39" s="17">
         <v>0</v>
       </c>
-      <c r="F39" s="25">
-        <v>3006</v>
+      <c r="F39" s="24">
+        <v>3003</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="17">
-        <v>2019</v>
+        <v>3001</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="21"/>
       <c r="E40" s="17">
         <v>0</v>
       </c>
-      <c r="F40" s="25">
-        <v>3002</v>
+      <c r="F40" s="24">
+        <v>5001</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="17">
-        <v>2020</v>
+        <v>3002</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="17">
+        <v>0</v>
+      </c>
+      <c r="F41" s="24">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="17">
+        <v>3003</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="17">
-        <v>0</v>
-      </c>
-      <c r="F41" s="25">
-        <v>3003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="17">
+        <v>0</v>
+      </c>
+      <c r="F42" s="24">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="17">
+        <v>3004</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="17">
+        <v>0</v>
+      </c>
+      <c r="F43" s="24">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="17">
+        <v>3005</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="17">
+        <v>0</v>
+      </c>
+      <c r="F44" s="24">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="17">
+        <v>3006</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="17">
+        <v>0</v>
+      </c>
+      <c r="F45" s="24">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="17">
+        <v>3007</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="17">
+        <v>0</v>
+      </c>
+      <c r="F46" s="24">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="17">
+        <v>3008</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="17">
+        <v>0</v>
+      </c>
+      <c r="F47" s="24">
+        <v>5008</v>
+      </c>
+    </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B48" s="6"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B49" s="6"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B50" s="6"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D51" s="20"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D52" s="20"/>
+      <c r="A48" s="17">
+        <v>3009</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="17">
+        <v>0</v>
+      </c>
+      <c r="F48" s="24">
+        <v>5009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="17">
+        <v>3010</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="E49" s="17">
+        <v>0</v>
+      </c>
+      <c r="F49" s="24">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="17">
+        <v>3011</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="17">
+        <v>0</v>
+      </c>
+      <c r="F50" s="24">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="24"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="24"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="24"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="24"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
+++ b/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pro\github\Soil\SoilExperiment\Assets\InProject\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubrepository\test\SoilExperiment\Assets\InProject\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EC627C-DDDA-478B-AAFA-CCE61A998C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -548,7 +547,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -787,8 +786,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 5" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1089,11 +1088,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1107,7 +1106,7 @@
     <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1126,8 +1125,18 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
@@ -1146,8 +1155,18 @@
       <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
@@ -1166,8 +1185,18 @@
       <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>1001</v>
       </c>
@@ -1184,8 +1213,18 @@
       <c r="F4" s="15">
         <v>1001</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>1002</v>
       </c>
@@ -1202,8 +1241,18 @@
       <c r="F5" s="15">
         <v>1002</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>1003</v>
       </c>
@@ -1222,8 +1271,18 @@
       <c r="F6" s="15">
         <v>1003</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>1004</v>
       </c>
@@ -1240,8 +1299,18 @@
       <c r="F7" s="15">
         <v>1004</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>1005</v>
       </c>
@@ -1258,8 +1327,18 @@
       <c r="F8" s="15">
         <v>1005</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15">
         <v>1006</v>
       </c>
@@ -1276,8 +1355,18 @@
       <c r="F9" s="15">
         <v>1006</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>1007</v>
       </c>
@@ -1294,8 +1383,18 @@
       <c r="F10" s="15">
         <v>1007</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>1008</v>
       </c>
@@ -1312,8 +1411,18 @@
       <c r="F11" s="15">
         <v>1008</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>1009</v>
       </c>
@@ -1329,8 +1438,18 @@
       <c r="F12" s="15">
         <v>1009</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>1010</v>
       </c>
@@ -1349,8 +1468,18 @@
       <c r="F13" s="15">
         <v>1010</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>1011</v>
       </c>
@@ -1367,8 +1496,18 @@
       <c r="F14" s="17">
         <v>1006</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>1012</v>
       </c>
@@ -1385,8 +1524,18 @@
       <c r="F15" s="17">
         <v>1004</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>1013</v>
       </c>
@@ -1403,8 +1552,18 @@
       <c r="F16" s="17">
         <v>2001</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>1014</v>
       </c>
@@ -1421,8 +1580,18 @@
       <c r="F17" s="17">
         <v>1006</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>1015</v>
       </c>
@@ -1439,8 +1608,18 @@
       <c r="F18" s="17">
         <v>2002</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>1016</v>
       </c>
@@ -1457,8 +1636,18 @@
       <c r="F19" s="17">
         <v>1008</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>1017</v>
       </c>
@@ -1475,8 +1664,18 @@
       <c r="F20" s="17">
         <v>1009</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>1018</v>
       </c>
@@ -1495,8 +1694,18 @@
       <c r="F21" s="17">
         <v>1010</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>2001</v>
       </c>
@@ -1513,8 +1722,18 @@
       <c r="F22" s="17">
         <v>3001</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>2002</v>
       </c>
@@ -1533,8 +1752,18 @@
       <c r="F23" s="18">
         <v>3002</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>2003</v>
       </c>
@@ -1553,8 +1782,18 @@
       <c r="F24" s="18">
         <v>3003</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>2004</v>
       </c>
@@ -1570,8 +1809,18 @@
       <c r="F25" s="18">
         <v>3004</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>2005</v>
       </c>
@@ -1587,8 +1836,18 @@
       <c r="F26" s="18">
         <v>3005</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>2006</v>
       </c>
@@ -1607,8 +1866,18 @@
       <c r="F27" s="18">
         <v>3002</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>2007</v>
       </c>
@@ -1627,8 +1896,18 @@
       <c r="F28" s="18">
         <v>3003</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>2008</v>
       </c>
@@ -1644,8 +1923,18 @@
       <c r="F29" s="18">
         <v>3006</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>2009</v>
       </c>
@@ -1661,8 +1950,18 @@
       <c r="F30" s="18">
         <v>3007</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>2010</v>
       </c>
@@ -1678,8 +1977,18 @@
       <c r="F31" s="18">
         <v>3008</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>2011</v>
       </c>
@@ -1695,8 +2004,18 @@
       <c r="F32" s="18">
         <v>3009</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>2012</v>
       </c>
@@ -1712,8 +2031,18 @@
       <c r="F33" s="18">
         <v>3009</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>2013</v>
       </c>
@@ -1729,8 +2058,18 @@
       <c r="F34" s="18">
         <v>3010</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>2014</v>
       </c>
@@ -1746,8 +2085,18 @@
       <c r="F35" s="18">
         <v>4001</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>2015</v>
       </c>
@@ -1763,8 +2112,18 @@
       <c r="F36" s="18">
         <v>4002</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>2016</v>
       </c>
@@ -1780,8 +2139,18 @@
       <c r="F37" s="18">
         <v>3006</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>2017</v>
       </c>
@@ -1800,8 +2169,18 @@
       <c r="F38" s="18">
         <v>3002</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>2018</v>
       </c>
@@ -1820,8 +2199,18 @@
       <c r="F39" s="18">
         <v>3003</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>3001</v>
       </c>
@@ -1838,8 +2227,18 @@
       <c r="F40" s="18">
         <v>5001</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+    </row>
+    <row r="41" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="15">
         <v>3002</v>
       </c>
@@ -1857,7 +2256,7 @@
         <v>5002</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15">
         <v>3003</v>
       </c>
@@ -1875,7 +2274,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="15">
         <v>3004</v>
       </c>
@@ -1893,7 +2292,7 @@
         <v>5004</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="15">
         <v>3005</v>
       </c>
@@ -1911,7 +2310,7 @@
         <v>5005</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="15">
         <v>3006</v>
       </c>
@@ -1929,7 +2328,7 @@
         <v>5006</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="15">
         <v>3007</v>
       </c>
@@ -1947,7 +2346,7 @@
         <v>5007</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A47" s="15">
         <v>3008</v>
       </c>
@@ -1965,7 +2364,7 @@
         <v>5008</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="15">
         <v>3009</v>
       </c>
@@ -2104,8 +2503,7 @@
       <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="15"/>
-      <c r="B56" s="16"/>
+      <c r="B56" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -2116,7 +2514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2130,7 +2528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
+++ b/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
@@ -116,9 +116,6 @@
     <t>3、点击电子秤，秤取环刀的质量</t>
   </si>
   <si>
-    <t>质量为m（精确到0.01g）</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>10、点击电子秤，秤取当前带土环刀的总质量</t>
   </si>
   <si>
-    <t>质量为R（精确到0.01g）</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -212,18 +206,9 @@
     <t>18、清理环刀，并测量下一个土样的密度</t>
   </si>
   <si>
-    <t>质量为Q（精确到0.01g）</t>
-  </si>
-  <si>
     <t>2、将称量盒分别放到电子秤上称重</t>
   </si>
   <si>
-    <t>质量为a（精确到0.01g）</t>
-  </si>
-  <si>
-    <t>质量为b（精确到0.01g）</t>
-  </si>
-  <si>
     <t>3、取土样放入称量盒1中，立即盖上称量盒盖</t>
   </si>
   <si>
@@ -231,12 +216,6 @@
   </si>
   <si>
     <t>5、再次秤取称量盒质量</t>
-  </si>
-  <si>
-    <t>质量为A（精确到0.01g）</t>
-  </si>
-  <si>
-    <t>质量为B（精确到0.01g）</t>
   </si>
   <si>
     <t>6、将两个称量盒盖打开</t>
@@ -443,9 +422,6 @@
     <t>14、将称量盒放到电子秤上称重</t>
   </si>
   <si>
-    <t>质量为X（精确到0.01g）</t>
-  </si>
-  <si>
     <t>1、取风干土样，过0.5mm的筛200g</t>
   </si>
   <si>
@@ -510,9 +486,6 @@
       </rPr>
       <t>，读数指示管，即可读数</t>
     </r>
-  </si>
-  <si>
-    <t>20mm</t>
   </si>
   <si>
     <t>3、取直径符合3mm 断裂土条3g--5g放入称量盒内，盖紧盒盖。</t>
@@ -536,11 +509,188 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>质量为Y（精确到0.01g）</t>
+    <r>
+      <t>质量为4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.12g</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>m2（精确到0.01g）</t>
+    <r>
+      <t>质量为5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.31g</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量为39.22g</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>质量为4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.20g</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>质量为1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>65.24g</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量为145.54g</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>质量为22.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量为46.71g</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量为26.33g</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>质量为2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mm</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -710,7 +860,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,9 +917,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -845,7 +992,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -880,7 +1027,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1091,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1262,8 +1409,8 @@
       <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>20</v>
+      <c r="D6" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="E6" s="15">
         <v>0</v>
@@ -1287,10 +1434,10 @@
         <v>1004</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15">
@@ -1315,10 +1462,10 @@
         <v>1005</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15">
@@ -1343,10 +1490,10 @@
         <v>1006</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15">
@@ -1371,10 +1518,10 @@
         <v>1007</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15">
@@ -1399,10 +1546,10 @@
         <v>1008</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15">
@@ -1427,10 +1574,10 @@
         <v>1009</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="E12" s="15">
         <v>0</v>
@@ -1454,13 +1601,13 @@
         <v>1010</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>35</v>
+      <c r="D13" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="E13" s="15">
         <v>0</v>
@@ -1484,10 +1631,10 @@
         <v>1011</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="15">
@@ -1512,10 +1659,10 @@
         <v>1012</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="15">
@@ -1540,10 +1687,10 @@
         <v>1013</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="15">
@@ -1568,10 +1715,10 @@
         <v>1014</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="15">
@@ -1596,10 +1743,10 @@
         <v>1015</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="15">
@@ -1624,10 +1771,10 @@
         <v>1016</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="15">
@@ -1652,10 +1799,10 @@
         <v>1017</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="15">
@@ -1680,13 +1827,13 @@
         <v>1018</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="E21" s="15">
         <v>0</v>
@@ -1741,10 +1888,10 @@
         <v>16</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="E23" s="15">
         <v>0</v>
@@ -1771,10 +1918,10 @@
         <v>18</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="E24" s="15">
         <v>0</v>
@@ -1798,10 +1945,10 @@
         <v>2004</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E25" s="15">
         <v>0</v>
@@ -1825,10 +1972,10 @@
         <v>2005</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E26" s="15">
         <v>0</v>
@@ -1852,13 +1999,13 @@
         <v>2006</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="E27" s="15">
         <v>0</v>
@@ -1882,13 +2029,13 @@
         <v>2007</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="E28" s="15">
         <v>0</v>
@@ -1912,10 +2059,10 @@
         <v>2008</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>61</v>
+        <v>28</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="E29" s="15">
         <v>0</v>
@@ -1939,10 +2086,10 @@
         <v>2009</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E30" s="15">
         <v>0</v>
@@ -1966,10 +2113,10 @@
         <v>2010</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E31" s="15">
         <v>0</v>
@@ -1993,10 +2140,10 @@
         <v>2011</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>63</v>
+        <v>34</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="E32" s="15">
         <v>0</v>
@@ -2020,10 +2167,10 @@
         <v>2012</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="E33" s="15">
         <v>0</v>
@@ -2047,10 +2194,10 @@
         <v>2013</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E34" s="15">
         <v>0</v>
@@ -2074,10 +2221,10 @@
         <v>2014</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
@@ -2101,10 +2248,10 @@
         <v>2015</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E36" s="15">
         <v>0</v>
@@ -2128,10 +2275,10 @@
         <v>2016</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E37" s="15">
         <v>0</v>
@@ -2155,13 +2302,13 @@
         <v>2017</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="E38" s="15">
         <v>0</v>
@@ -2185,13 +2332,13 @@
         <v>2018</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>85</v>
+        <v>61</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="E39" s="15">
         <v>0</v>
@@ -2218,7 +2365,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="15">
@@ -2246,7 +2393,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="15">
@@ -2264,7 +2411,7 @@
         <v>18</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="15">
@@ -2279,10 +2426,10 @@
         <v>3004</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="15">
@@ -2297,10 +2444,10 @@
         <v>3005</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="15">
@@ -2315,10 +2462,10 @@
         <v>3006</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="15">
@@ -2333,10 +2480,10 @@
         <v>3007</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>74</v>
+        <v>26</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="15">
@@ -2351,10 +2498,10 @@
         <v>3008</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>75</v>
+        <v>28</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="15">
@@ -2369,10 +2516,10 @@
         <v>3009</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="15">
@@ -2387,10 +2534,10 @@
         <v>3010</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="15">
@@ -2405,13 +2552,13 @@
         <v>3011</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>79</v>
+        <v>34</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="E50" s="15">
         <v>0</v>
@@ -2427,8 +2574,8 @@
       <c r="B51" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>82</v>
+      <c r="C51" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="15">
@@ -2445,10 +2592,10 @@
       <c r="B52" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="20"/>
+      <c r="C52" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="19"/>
       <c r="E52" s="15">
         <v>0</v>
       </c>
@@ -2463,10 +2610,10 @@
       <c r="B53" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" s="20"/>
+      <c r="C53" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="19"/>
       <c r="E53" s="15">
         <v>0</v>
       </c>
@@ -2478,14 +2625,14 @@
       <c r="A54" s="15">
         <v>4004</v>
       </c>
-      <c r="B54" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>86</v>
+      <c r="B54" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="E54" s="15">
         <v>0</v>
@@ -2508,8 +2655,8 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
+++ b/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubrepository\test\SoilExperiment\Assets\InProject\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pro\github\Soil\SoilExperiment\Assets\InProject\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4A0F3D-E0F6-4C9D-9911-C60648A4E830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -222,189 +223,6 @@
   </si>
   <si>
     <t>7、将称量盒放入烘箱</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、调整温度和时间。（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>105-110</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>°</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>恒温，细粒土不少于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，砂类土不得少于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。对含有机质超过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的土或含石膏的土，应将温度
-控制在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>60~70</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>°</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的恒温下，干燥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12 ~ 15h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。）关闭烘箱</t>
-    </r>
   </si>
   <si>
     <t>9、打开烘箱</t>
@@ -496,16 +314,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1、过0.5mm筛的代表性试样约100g，加纯水拌和，浸润静置过夜。取接近塑限的试样一小块（将试样在手中捏揉至不粘手，捏扁，当出现裂缝时，表示含水率已接近塑限），用手捏成橄榄形状，放在毛玻璃上
-</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、用手掌在毛玻璃板上轻轻搓滚。当土条搓成3mm时，产生裂缝并开始断裂，表示试样达到塑限。（搓滚时手掌均匀施加压力于土条上，不得使土条在毛玻璃板上无力滚动。土条不得有空心现象。土条长度不宜大于手掌宽度;）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -693,11 +502,24 @@
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>8、调整温度和时间，关闭烘箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、过0.5mm筛的代表性试样约100g，加纯水拌和，浸润静置过夜。取接近塑限的试样一小块，用手捏成橄榄形状，放在毛玻璃上
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、用手掌在毛玻璃板上轻轻搓滚。当土条搓成3mm时，产生裂缝并开始断裂，表示试样达到塑限。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -933,8 +755,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 5" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -950,7 +772,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1025,6 +847,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1060,6 +899,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1235,11 +1091,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1410,7 +1266,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E6" s="15">
         <v>0</v>
@@ -1607,7 +1463,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E13" s="15">
         <v>0</v>
@@ -1833,7 +1689,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E21" s="15">
         <v>0</v>
@@ -1891,7 +1747,7 @@
         <v>50</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E23" s="15">
         <v>0</v>
@@ -1921,7 +1777,7 @@
         <v>50</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E24" s="15">
         <v>0</v>
@@ -2005,7 +1861,7 @@
         <v>53</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E27" s="15">
         <v>0</v>
@@ -2035,7 +1891,7 @@
         <v>53</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E28" s="15">
         <v>0</v>
@@ -2135,15 +1991,15 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>2011</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>56</v>
+      <c r="C32" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="E32" s="15">
         <v>0</v>
@@ -2170,7 +2026,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" s="15">
         <v>0</v>
@@ -2197,7 +2053,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" s="15">
         <v>0</v>
@@ -2224,7 +2080,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
@@ -2251,7 +2107,7 @@
         <v>42</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E36" s="15">
         <v>0</v>
@@ -2278,7 +2134,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37" s="15">
         <v>0</v>
@@ -2305,10 +2161,10 @@
         <v>46</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E38" s="15">
         <v>0</v>
@@ -2335,10 +2191,10 @@
         <v>48</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E39" s="15">
         <v>0</v>
@@ -2365,7 +2221,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="15">
@@ -2393,7 +2249,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="15">
@@ -2411,7 +2267,7 @@
         <v>18</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="15">
@@ -2429,7 +2285,7 @@
         <v>20</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="15">
@@ -2447,7 +2303,7 @@
         <v>22</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="15">
@@ -2465,7 +2321,7 @@
         <v>24</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="15">
@@ -2483,7 +2339,7 @@
         <v>26</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="15">
@@ -2501,7 +2357,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="15">
@@ -2519,7 +2375,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="15">
@@ -2537,7 +2393,7 @@
         <v>32</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="15">
@@ -2555,10 +2411,10 @@
         <v>34</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E50" s="15">
         <v>0</v>
@@ -2567,7 +2423,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A51" s="15">
         <v>4001</v>
       </c>
@@ -2575,7 +2431,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="15">
@@ -2593,7 +2449,7 @@
         <v>16</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="15">
@@ -2611,7 +2467,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="15">
@@ -2626,13 +2482,13 @@
         <v>4004</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E54" s="15">
         <v>0</v>
@@ -2661,7 +2517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2675,7 +2531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
+++ b/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pro\github\Soil\SoilExperiment\Assets\InProject\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubrepository\test\SoilExperiment\Assets\InProject\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4A0F3D-E0F6-4C9D-9911-C60648A4E830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
   <si>
     <t>UID</t>
   </si>
@@ -238,15 +237,6 @@
   </si>
   <si>
     <t>14、将称量盒放到电子秤上称重</t>
-  </si>
-  <si>
-    <t>1、取风干土样，过0.5mm的筛200g</t>
-  </si>
-  <si>
-    <t>2、将土样分开放入三个盛土皿中</t>
-  </si>
-  <si>
-    <t>3、依据经验，添加不同的水，使其达到试验所需含水量</t>
   </si>
   <si>
     <t>4、用调土刀调匀，盖上湿布放置18h以上</t>
@@ -515,11 +505,15 @@
     <t>2、用手掌在毛玻璃板上轻轻搓滚。当土条搓成3mm时，产生裂缝并开始断裂，表示试样达到塑限。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>1、取风干土样，过0.5mm的筛200g，将土样分开放入三个盛土皿中，依据经验，添加不同的水，使其达到试验所需含水量</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -755,8 +749,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 5" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -772,7 +766,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -847,23 +841,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -899,23 +876,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1091,11 +1051,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1266,7 +1226,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E6" s="15">
         <v>0</v>
@@ -1463,7 +1423,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E13" s="15">
         <v>0</v>
@@ -1689,7 +1649,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E21" s="15">
         <v>0</v>
@@ -1747,7 +1707,7 @@
         <v>50</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E23" s="15">
         <v>0</v>
@@ -1777,7 +1737,7 @@
         <v>50</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E24" s="15">
         <v>0</v>
@@ -1861,7 +1821,7 @@
         <v>53</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E27" s="15">
         <v>0</v>
@@ -1891,7 +1851,7 @@
         <v>53</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E28" s="15">
         <v>0</v>
@@ -1999,7 +1959,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E32" s="15">
         <v>0</v>
@@ -2164,7 +2124,7 @@
         <v>60</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E38" s="15">
         <v>0</v>
@@ -2194,7 +2154,7 @@
         <v>60</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E39" s="15">
         <v>0</v>
@@ -2213,15 +2173,15 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>3001</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>61</v>
+      <c r="C40" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="15">
@@ -2245,73 +2205,41 @@
       <c r="A41" s="15">
         <v>3002</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>62</v>
-      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="15">
-        <v>0</v>
-      </c>
-      <c r="F41" s="18">
-        <v>5002</v>
-      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15">
         <v>3003</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>62</v>
-      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="17"/>
-      <c r="E42" s="15">
-        <v>0</v>
-      </c>
-      <c r="F42" s="18">
-        <v>5003</v>
-      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="15">
         <v>3004</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>62</v>
-      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="15">
-        <v>0</v>
-      </c>
-      <c r="F43" s="18">
-        <v>5004</v>
-      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="15">
         <v>3005</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>63</v>
-      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="15">
-        <v>0</v>
-      </c>
-      <c r="F44" s="18">
-        <v>5005</v>
-      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="15">
@@ -2321,7 +2249,7 @@
         <v>24</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="15">
@@ -2339,7 +2267,7 @@
         <v>26</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="15">
@@ -2357,7 +2285,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="15">
@@ -2375,7 +2303,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="15">
@@ -2393,7 +2321,7 @@
         <v>32</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="15">
@@ -2411,10 +2339,10 @@
         <v>34</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E50" s="15">
         <v>0</v>
@@ -2431,7 +2359,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="15">
@@ -2449,7 +2377,7 @@
         <v>16</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="15">
@@ -2467,7 +2395,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="15">
@@ -2482,13 +2410,13 @@
         <v>4004</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E54" s="15">
         <v>0</v>
@@ -2517,7 +2445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2531,7 +2459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
+++ b/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
   <si>
     <t>UID</t>
   </si>
@@ -237,63 +237,6 @@
   </si>
   <si>
     <t>14、将称量盒放到电子秤上称重</t>
-  </si>
-  <si>
-    <t>4、用调土刀调匀，盖上湿布放置18h以上</t>
-  </si>
-  <si>
-    <t>5、将制备好的土样充分搅拌均匀</t>
-  </si>
-  <si>
-    <t>6、将制备好的土样分层装入盛土杯，用力压密，使空气逸出。试杯装满后,刮成与杯边齐平</t>
-  </si>
-  <si>
-    <t>6、将盛土杯放入联合测定仪上</t>
-  </si>
-  <si>
-    <t>7、转动平台升降螺母，当锥尖刚与土面接触时指示管亮</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、点动测量按钮，圆锥自由落下，延时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，读数指示管，即可读数</t>
-    </r>
   </si>
   <si>
     <t>3、取直径符合3mm 断裂土条3g--5g放入称量盒内，盖紧盒盖。</t>
@@ -507,6 +450,54 @@
   </si>
   <si>
     <t>1、取风干土样，过0.5mm的筛200g，将土样分开放入三个盛土皿中，依据经验，添加不同的水，使其达到试验所需含水量</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、用调土刀调匀，盖上湿布放置18h以上</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、将制备好的土样充分搅拌均匀</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、将制备好的土样分层装入盛土杯，用力压密，使空气逸出。试杯装满后,刮成与杯边齐平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、将盛土杯放入联合测定仪上</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、转动平台升降螺母，当锥尖刚与土面接触时指示管亮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、点动测量按钮，圆锥自由落下，延时5s，读数指示管，即可读数</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1054,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1226,7 +1217,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E6" s="15">
         <v>0</v>
@@ -1423,7 +1414,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E13" s="15">
         <v>0</v>
@@ -1649,7 +1640,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E21" s="15">
         <v>0</v>
@@ -1707,7 +1698,7 @@
         <v>50</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E23" s="15">
         <v>0</v>
@@ -1737,7 +1728,7 @@
         <v>50</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E24" s="15">
         <v>0</v>
@@ -1821,7 +1812,7 @@
         <v>53</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E27" s="15">
         <v>0</v>
@@ -1851,7 +1842,7 @@
         <v>53</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E28" s="15">
         <v>0</v>
@@ -1959,7 +1950,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E32" s="15">
         <v>0</v>
@@ -2124,7 +2115,7 @@
         <v>60</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E38" s="15">
         <v>0</v>
@@ -2154,7 +2145,7 @@
         <v>60</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E39" s="15">
         <v>0</v>
@@ -2181,7 +2172,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="15">
@@ -2205,226 +2196,189 @@
       <c r="A41" s="15">
         <v>3002</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="22"/>
+      <c r="B41" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="D41" s="17"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="18"/>
+      <c r="E41" s="15">
+        <v>0</v>
+      </c>
+      <c r="F41" s="18">
+        <v>5006</v>
+      </c>
     </row>
     <row r="42" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15">
         <v>3003</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="D42" s="17"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="15">
+        <v>0</v>
+      </c>
+      <c r="F42" s="18">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A43" s="15">
         <v>3004</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
+      <c r="B43" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="D43" s="17"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="18"/>
+      <c r="E43" s="15">
+        <v>0</v>
+      </c>
+      <c r="F43" s="18">
+        <v>5008</v>
+      </c>
     </row>
     <row r="44" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="15">
         <v>3005</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="22"/>
+      <c r="B44" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>88</v>
+      </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="18"/>
+      <c r="E44" s="15">
+        <v>0</v>
+      </c>
+      <c r="F44" s="18">
+        <v>5009</v>
+      </c>
     </row>
     <row r="45" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="15">
         <v>3006</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>61</v>
+      <c r="B45" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="15">
         <v>0</v>
       </c>
       <c r="F45" s="18">
-        <v>5006</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A46" s="15">
         <v>3007</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="17"/>
+      <c r="B46" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="E46" s="15">
         <v>0</v>
       </c>
       <c r="F46" s="18">
-        <v>5007</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A47" s="15">
-        <v>3008</v>
+        <v>4001</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>63</v>
+        <v>14</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="15">
         <v>0</v>
       </c>
       <c r="F47" s="18">
-        <v>5008</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="15">
-        <v>3009</v>
+        <v>4002</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="19"/>
       <c r="E48" s="15">
         <v>0</v>
       </c>
       <c r="F48" s="18">
-        <v>5009</v>
+        <v>6002</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="15">
-        <v>3010</v>
+        <v>4003</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="19"/>
       <c r="E49" s="15">
         <v>0</v>
       </c>
       <c r="F49" s="18">
-        <v>5010</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="15">
-        <v>3011</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>80</v>
+        <v>4004</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="E50" s="15">
         <v>0</v>
       </c>
       <c r="F50" s="18">
-        <v>5010</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A51" s="15">
-        <v>4001</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="15">
-        <v>0</v>
-      </c>
-      <c r="F51" s="18">
-        <v>6001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="15">
-        <v>4002</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="15">
-        <v>0</v>
-      </c>
-      <c r="F52" s="18">
-        <v>6002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="15">
-        <v>4003</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="15">
-        <v>0</v>
-      </c>
-      <c r="F53" s="18">
-        <v>6003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="51.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="15">
-        <v>4004</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" s="15">
-        <v>0</v>
-      </c>
-      <c r="F54" s="18">
         <v>6004</v>
       </c>
     </row>
+    <row r="52" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="1:6" ht="51.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>

--- a/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
+++ b/Assets/InProject/Excels/ExperimentInstructionConfig.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
   <si>
     <t>UID</t>
   </si>
@@ -207,36 +207,6 @@
   </si>
   <si>
     <t>2、将称量盒分别放到电子秤上称重</t>
-  </si>
-  <si>
-    <t>3、取土样放入称量盒1中，立即盖上称量盒盖</t>
-  </si>
-  <si>
-    <t>4、取土样放入称量盒2中，立即盖上称量盒盖</t>
-  </si>
-  <si>
-    <t>5、再次秤取称量盒质量</t>
-  </si>
-  <si>
-    <t>6、将两个称量盒盖打开</t>
-  </si>
-  <si>
-    <t>7、将称量盒放入烘箱</t>
-  </si>
-  <si>
-    <t>9、打开烘箱</t>
-  </si>
-  <si>
-    <t>10、将称量盒放入干燥器中，冷却0. 5~1h</t>
-  </si>
-  <si>
-    <t>12、打开干燥器盖子</t>
-  </si>
-  <si>
-    <t>13、盖上称量盒盖</t>
-  </si>
-  <si>
-    <t>14、将称量盒放到电子秤上称重</t>
   </si>
   <si>
     <t>3、取直径符合3mm 断裂土条3g--5g放入称量盒内，盖紧盒盖。</t>
@@ -436,10 +406,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>8、调整温度和时间，关闭烘箱</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1、过0.5mm筛的代表性试样约100g，加纯水拌和，浸润静置过夜。取接近塑限的试样一小块，用手捏成橄榄形状，放在毛玻璃上
 </t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -498,6 +464,149 @@
   </si>
   <si>
     <t>7、点动测量按钮，圆锥自由落下，延时5s，读数指示管，即可读数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、再次秤取称量盒质量</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、将两个称量盒盖打开</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、将称量盒放入烘箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、调整温度和时间，关闭烘箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、打开烘箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、将称量盒放入干燥器中，冷却0. 5~1h</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、将称量盒放入干燥器中，冷却0. 5~2h</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、打开干燥器盖子</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、盖上称量盒盖</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、将称量盒放到电子秤上称重</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、将称量盒放到电子秤上称重</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、取土样放入称量盒中，立即盖上称量盒盖</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1045,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1217,7 +1326,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E6" s="15">
         <v>0</v>
@@ -1414,7 +1523,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E13" s="15">
         <v>0</v>
@@ -1640,7 +1749,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E21" s="15">
         <v>0</v>
@@ -1698,7 +1807,7 @@
         <v>50</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E23" s="15">
         <v>0</v>
@@ -1728,7 +1837,7 @@
         <v>50</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E24" s="15">
         <v>0</v>
@@ -1754,8 +1863,8 @@
       <c r="B25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>51</v>
+      <c r="C25" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="E25" s="15">
         <v>0</v>
@@ -1781,14 +1890,17 @@
       <c r="B26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>52</v>
+      <c r="C26" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="E26" s="15">
         <v>0</v>
       </c>
       <c r="F26" s="18">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1808,17 +1920,17 @@
       <c r="B27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>53</v>
+      <c r="C27" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E27" s="15">
         <v>0</v>
       </c>
       <c r="F27" s="18">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1838,17 +1950,14 @@
       <c r="B28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>65</v>
+      <c r="C28" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="E28" s="15">
         <v>0</v>
       </c>
       <c r="F28" s="18">
-        <v>3003</v>
+        <v>3006</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1868,14 +1977,14 @@
       <c r="B29" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>54</v>
+      <c r="C29" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="E29" s="15">
         <v>0</v>
       </c>
       <c r="F29" s="18">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1895,14 +2004,14 @@
       <c r="B30" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>55</v>
+      <c r="C30" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="E30" s="15">
         <v>0</v>
       </c>
       <c r="F30" s="18">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -1922,14 +2031,14 @@
       <c r="B31" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>55</v>
+      <c r="C31" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="E31" s="15">
         <v>0</v>
       </c>
       <c r="F31" s="18">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1950,7 +2059,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E32" s="15">
         <v>0</v>
@@ -1973,17 +2082,17 @@
       <c r="A33" s="15">
         <v>2012</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>56</v>
+      <c r="B33" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="E33" s="15">
         <v>0</v>
       </c>
       <c r="F33" s="18">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -2003,14 +2112,14 @@
       <c r="B34" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>57</v>
+      <c r="C34" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="E34" s="15">
         <v>0</v>
       </c>
       <c r="F34" s="18">
-        <v>3010</v>
+        <v>4001</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2030,14 +2139,14 @@
       <c r="B35" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>57</v>
+      <c r="C35" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
       </c>
       <c r="F35" s="18">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -2057,14 +2166,14 @@
       <c r="B36" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>58</v>
+      <c r="C36" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="E36" s="15">
         <v>0</v>
       </c>
       <c r="F36" s="18">
-        <v>4002</v>
+        <v>3006</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -2084,14 +2193,17 @@
       <c r="B37" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>59</v>
+      <c r="C37" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="E37" s="15">
         <v>0</v>
       </c>
       <c r="F37" s="18">
-        <v>3006</v>
+        <v>3002</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -2111,17 +2223,17 @@
       <c r="B38" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>60</v>
+      <c r="C38" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E38" s="15">
         <v>0</v>
       </c>
       <c r="F38" s="18">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -2134,24 +2246,22 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
-        <v>2018</v>
+        <v>3001</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>71</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="17"/>
       <c r="E39" s="15">
         <v>0</v>
       </c>
       <c r="F39" s="18">
-        <v>3003</v>
+        <v>5001</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -2164,22 +2274,22 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="1:16" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>78</v>
+        <v>68</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="15">
         <v>0</v>
       </c>
       <c r="F40" s="18">
-        <v>5001</v>
+        <v>5006</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -2194,87 +2304,89 @@
     </row>
     <row r="41" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="15">
-        <v>3002</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>85</v>
+        <v>3003</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="15">
         <v>0</v>
       </c>
       <c r="F41" s="18">
-        <v>5006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A42" s="15">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="15">
         <v>0</v>
       </c>
       <c r="F42" s="18">
-        <v>5007</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="15">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>87</v>
+        <v>71</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="15">
         <v>0</v>
       </c>
       <c r="F43" s="18">
-        <v>5008</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="15">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="15">
         <v>0</v>
       </c>
       <c r="F44" s="18">
-        <v>5009</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="15">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="17"/>
+        <v>73</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="E45" s="15">
         <v>0</v>
       </c>
@@ -2282,97 +2394,77 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A46" s="15">
-        <v>3007</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>84</v>
+        <v>4001</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D46" s="17"/>
       <c r="E46" s="15">
         <v>0</v>
       </c>
       <c r="F46" s="18">
-        <v>5010</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A47" s="15">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" s="17"/>
+        <v>66</v>
+      </c>
+      <c r="D47" s="19"/>
       <c r="E47" s="15">
         <v>0</v>
       </c>
       <c r="F47" s="18">
-        <v>6001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="15">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="15">
         <v>0</v>
       </c>
       <c r="F48" s="18">
-        <v>6002</v>
+        <v>6003</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="15">
-        <v>4003</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>18</v>
+        <v>4004</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="E49" s="15">
         <v>0</v>
       </c>
       <c r="F49" s="18">
-        <v>6003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="15">
-        <v>4004</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="15">
-        <v>0</v>
-      </c>
-      <c r="F50" s="18">
         <v>6004</v>
       </c>
     </row>
